--- a/pred_ohlcv/54_21/2019-10-27 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 POWR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-44653.84380000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-46722.84380000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-60151.70870000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-59659.80910000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-82906.88910000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-88529.82080000002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-88256.85970000002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-88256.85970000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-113438.9291</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-107695.2882</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-112130.1981</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-228766.3855</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-233788.0163</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-189971.0671</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-195550.4029</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-208440.153</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-207373.5188</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-207373.5188</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-211669.8855</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-204424.33</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-204424.33</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-204424.33</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-205880.3561</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-205880.3561</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-187652.8565</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-189045.2316</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-189045.2316</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-189045.2316</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-185761.2216</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-205665.444</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-205572.1712</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-194333.2327</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 POWR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-44653.84380000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-46722.84380000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-60151.70870000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-59532.70870000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-59659.80910000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-85270.29920000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-85270.29920000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-82906.88910000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-88529.82080000002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-88256.85970000002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-88256.85970000002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-113438.9291</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-107695.2882</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-112130.1981</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-228766.3855</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-233788.0163</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-189971.0671</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-195550.4029</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-208440.153</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-207373.5188</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-207373.5188</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-211669.8855</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-204424.33</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-204424.33</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-204424.33</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-205880.3561</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-176727.8565</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-187127.8565</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-186367.8565</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-187652.8565</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-189045.2316</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-189045.2316</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-189045.2316</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-185761.2216</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-205572.1712</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-194333.2327</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
